--- a/translation/xlsx/_meak_023.xlsx
+++ b/translation/xlsx/_meak_023.xlsx
@@ -8217,7 +8217,7 @@
     <t xml:space="preserve"> Click!</t>
   </si>
   <si>
-    <t xml:space="preserve">\"찰칵!! </t>
+    <t xml:space="preserve">찰칵!! </t>
   </si>
   <si>
     <t>철컥철컥!!</t>
@@ -21213,7 +21213,7 @@
       <c r="C744" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="D744" s="2" t="s">
+      <c r="D744" s="8" t="s">
         <v>2722</v>
       </c>
       <c r="E744" s="1" t="s">

--- a/translation/xlsx/_meak_023.xlsx
+++ b/translation/xlsx/_meak_023.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="2801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="2802">
   <si>
     <t>actor</t>
   </si>
@@ -8209,6 +8209,9 @@
   </si>
   <si>
     <t xml:space="preserve"> hee\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">케\" </t>
   </si>
   <si>
     <t>」ガシャン！！</t>
@@ -21163,8 +21166,8 @@
       <c r="C742" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="D742" s="2" t="s">
-        <v>2717</v>
+      <c r="D742" s="8" t="s">
+        <v>2720</v>
       </c>
       <c r="E742" s="1" t="s">
         <v>2718</v>
@@ -21208,324 +21211,324 @@
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="1" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="D744" s="8" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="F744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="F745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="1" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="F746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="F747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="1" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="F748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="1" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="F749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="1" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="1" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="F751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="F752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="1" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="F753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="1" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="F754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="1" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="F755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="F756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="1" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="F757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="1" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="F758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="1" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="F759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="1" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="F760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="1" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="F761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="1" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="F762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="1" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="F763" s="2"/>
       <c r="G763" s="16" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="H763" s="16"/>
       <c r="I763" s="16"/>
